--- a/data/pca/factorExposure/factorExposure_2010-05-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-05-05.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01456029982468419</v>
+        <v>-0.01716657507120079</v>
       </c>
       <c r="C2">
-        <v>0.004990669664932668</v>
+        <v>-0.001174627073969331</v>
       </c>
       <c r="D2">
-        <v>0.01561699571110622</v>
+        <v>-0.00848259802476907</v>
       </c>
       <c r="E2">
-        <v>0.01961815593329252</v>
+        <v>-0.0008668011081460006</v>
       </c>
       <c r="F2">
-        <v>-0.02636648543301696</v>
+        <v>0.01114446230488314</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1164507157600824</v>
+        <v>-0.09341178203888402</v>
       </c>
       <c r="C4">
-        <v>0.08460111463986417</v>
+        <v>-0.01708042842413317</v>
       </c>
       <c r="D4">
-        <v>-0.02291823149074606</v>
+        <v>-0.08333318628711779</v>
       </c>
       <c r="E4">
-        <v>0.01440925385562154</v>
+        <v>0.02992310732695927</v>
       </c>
       <c r="F4">
-        <v>-0.05095490056159604</v>
+        <v>-0.03307414524080372</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1296901435548636</v>
+        <v>-0.1531157933663007</v>
       </c>
       <c r="C6">
-        <v>0.03610083016731953</v>
+        <v>-0.02483123875158394</v>
       </c>
       <c r="D6">
-        <v>0.01049469390704375</v>
+        <v>0.02258112140830335</v>
       </c>
       <c r="E6">
-        <v>-0.04363655493659119</v>
+        <v>0.008834258162883173</v>
       </c>
       <c r="F6">
-        <v>0.03790460083805911</v>
+        <v>-0.04193355450854174</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07807115084207335</v>
+        <v>-0.0603796944938715</v>
       </c>
       <c r="C7">
-        <v>0.08348903509405063</v>
+        <v>0.0003050076613537464</v>
       </c>
       <c r="D7">
-        <v>0.003466548833223431</v>
+        <v>-0.05149441446778484</v>
       </c>
       <c r="E7">
-        <v>0.03876743213345007</v>
+        <v>0.01554323687102902</v>
       </c>
       <c r="F7">
-        <v>-0.01404996658973676</v>
+        <v>-0.05423045172574051</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.04875775813680794</v>
+        <v>-0.05861232677445918</v>
       </c>
       <c r="C8">
-        <v>0.04548451448243986</v>
+        <v>0.01276586662371666</v>
       </c>
       <c r="D8">
-        <v>-0.002672371657921325</v>
+        <v>-0.02971727604003256</v>
       </c>
       <c r="E8">
-        <v>-0.02936762088921223</v>
+        <v>0.01415843427638357</v>
       </c>
       <c r="F8">
-        <v>-0.01647272067230786</v>
+        <v>0.02974409861695735</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08394251925401344</v>
+        <v>-0.07127788493928901</v>
       </c>
       <c r="C9">
-        <v>0.06942776238529703</v>
+        <v>-0.01319845862043361</v>
       </c>
       <c r="D9">
-        <v>-0.03164366242574564</v>
+        <v>-0.08349045858093462</v>
       </c>
       <c r="E9">
-        <v>0.009581411694042443</v>
+        <v>0.02590772038208899</v>
       </c>
       <c r="F9">
-        <v>-0.02811016237185829</v>
+        <v>-0.05467786322240322</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1266250207734372</v>
+        <v>-0.09370887324618705</v>
       </c>
       <c r="C10">
-        <v>-0.1574346168809978</v>
+        <v>-0.01662663188185038</v>
       </c>
       <c r="D10">
-        <v>0.02278648744575532</v>
+        <v>0.1715056614162192</v>
       </c>
       <c r="E10">
-        <v>0.03554907722512966</v>
+        <v>-0.03775257363737967</v>
       </c>
       <c r="F10">
-        <v>-0.002876673868708588</v>
+        <v>0.0529527672219475</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.07780263678344135</v>
+        <v>-0.08790201903219957</v>
       </c>
       <c r="C11">
-        <v>0.07263851406779173</v>
+        <v>-0.01259187326198173</v>
       </c>
       <c r="D11">
-        <v>-0.03538234249758127</v>
+        <v>-0.114027788007327</v>
       </c>
       <c r="E11">
-        <v>-0.003237232091500673</v>
+        <v>0.0481434502435224</v>
       </c>
       <c r="F11">
-        <v>-0.02446964327312472</v>
+        <v>-0.02269790998614979</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.06927008433795133</v>
+        <v>-0.09318314046060139</v>
       </c>
       <c r="C12">
-        <v>0.06963039697290074</v>
+        <v>-0.01041839546345764</v>
       </c>
       <c r="D12">
-        <v>-0.05341969392841898</v>
+        <v>-0.121026199573592</v>
       </c>
       <c r="E12">
-        <v>0.01622455827054265</v>
+        <v>0.04743542017654948</v>
       </c>
       <c r="F12">
-        <v>0.001344389296367174</v>
+        <v>-0.02446250025869312</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.02949402385194606</v>
+        <v>-0.04292379768820671</v>
       </c>
       <c r="C13">
-        <v>0.02728034166195742</v>
+        <v>-0.003973790381977066</v>
       </c>
       <c r="D13">
-        <v>0.01305463625569061</v>
+        <v>-0.04731396093704533</v>
       </c>
       <c r="E13">
-        <v>0.01441316978079827</v>
+        <v>-0.01223128773989569</v>
       </c>
       <c r="F13">
-        <v>-0.0005454941000781156</v>
+        <v>-0.01544274895464666</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.03739538544069596</v>
+        <v>-0.0219396957690333</v>
       </c>
       <c r="C14">
-        <v>0.03221311900136548</v>
+        <v>-0.01463201392607361</v>
       </c>
       <c r="D14">
-        <v>-0.0212447155178441</v>
+        <v>-0.03313252091761022</v>
       </c>
       <c r="E14">
-        <v>-0.0006865203205429809</v>
+        <v>0.01994024844922547</v>
       </c>
       <c r="F14">
-        <v>0.009702458496682892</v>
+        <v>-0.01883645879566281</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01581258004415041</v>
+        <v>-0.03184990488035585</v>
       </c>
       <c r="C15">
-        <v>0.02145172652552667</v>
+        <v>-0.005510397049467123</v>
       </c>
       <c r="D15">
-        <v>0.06474494230536162</v>
+        <v>-0.04562076465085459</v>
       </c>
       <c r="E15">
-        <v>0.01070796388684904</v>
+        <v>0.009439505425450042</v>
       </c>
       <c r="F15">
-        <v>-0.009923016478742315</v>
+        <v>-0.0318140033607841</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08170654583046422</v>
+        <v>-0.07449113965145447</v>
       </c>
       <c r="C16">
-        <v>0.06924157035854236</v>
+        <v>-0.004074567214370076</v>
       </c>
       <c r="D16">
-        <v>-0.04323047997021821</v>
+        <v>-0.1160725056345113</v>
       </c>
       <c r="E16">
-        <v>-0.02235539003720669</v>
+        <v>0.06273517777771681</v>
       </c>
       <c r="F16">
-        <v>-0.01220173474463218</v>
+        <v>-0.03288285139240095</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.0215018877702448</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003769862602168224</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02141979558727362</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.0106374208371616</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.02414899712028314</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04228614639895549</v>
+        <v>-0.06107343934767499</v>
       </c>
       <c r="C20">
-        <v>0.04424379029139976</v>
+        <v>-0.001845611508573387</v>
       </c>
       <c r="D20">
-        <v>0.01987589609790958</v>
+        <v>-0.07413166551962608</v>
       </c>
       <c r="E20">
-        <v>0.02890207505234623</v>
+        <v>0.05564086267437697</v>
       </c>
       <c r="F20">
-        <v>0.00273840206092362</v>
+        <v>-0.02899331675075534</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.0238363023993811</v>
+        <v>-0.03893683763827819</v>
       </c>
       <c r="C21">
-        <v>0.009216462926732893</v>
+        <v>-0.007790045591660522</v>
       </c>
       <c r="D21">
-        <v>-0.01146498370069228</v>
+        <v>-0.03524945084324589</v>
       </c>
       <c r="E21">
-        <v>-0.002957165654631759</v>
+        <v>-0.008740820004979822</v>
       </c>
       <c r="F21">
-        <v>-0.01254053630730263</v>
+        <v>0.01952868679928355</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.05802282581888676</v>
+        <v>-0.04230164220644045</v>
       </c>
       <c r="C22">
-        <v>0.02991841947762449</v>
+        <v>-0.0001094165334217616</v>
       </c>
       <c r="D22">
-        <v>0.6320159741436133</v>
+        <v>-0.003102750373086239</v>
       </c>
       <c r="E22">
-        <v>0.1015882258179339</v>
+        <v>0.03004484086130283</v>
       </c>
       <c r="F22">
-        <v>0.135798011968929</v>
+        <v>0.01166249638018398</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.05865906370983903</v>
+        <v>-0.04236352487996369</v>
       </c>
       <c r="C23">
-        <v>0.03115686032146974</v>
+        <v>-0.0001344180977393919</v>
       </c>
       <c r="D23">
-        <v>0.6342633527184929</v>
+        <v>-0.003223554424906727</v>
       </c>
       <c r="E23">
-        <v>0.1008084985977061</v>
+        <v>0.03039643573376661</v>
       </c>
       <c r="F23">
-        <v>0.1353034073329835</v>
+        <v>0.01120309669870976</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08252200140731336</v>
+        <v>-0.08081761501978785</v>
       </c>
       <c r="C24">
-        <v>0.07163588961962107</v>
+        <v>-0.004410129083521854</v>
       </c>
       <c r="D24">
-        <v>-0.03964979530880455</v>
+        <v>-0.1170910530377812</v>
       </c>
       <c r="E24">
-        <v>0.0005306109628464081</v>
+        <v>0.05057698947406144</v>
       </c>
       <c r="F24">
-        <v>-0.01546529573539571</v>
+        <v>-0.0251282817967712</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08309705767628216</v>
+        <v>-0.08526989536007418</v>
       </c>
       <c r="C25">
-        <v>0.06767224817091363</v>
+        <v>-0.006403554729207126</v>
       </c>
       <c r="D25">
-        <v>-0.05259828532179595</v>
+        <v>-0.1054862971625531</v>
       </c>
       <c r="E25">
-        <v>0.01102318256401537</v>
+        <v>0.0336963000670315</v>
       </c>
       <c r="F25">
-        <v>-0.01244309294099705</v>
+        <v>-0.03297411989438739</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.04294693943198335</v>
+        <v>-0.05566076606447294</v>
       </c>
       <c r="C26">
-        <v>0.002300831977425139</v>
+        <v>-0.01530121931038352</v>
       </c>
       <c r="D26">
-        <v>0.01226299385405186</v>
+        <v>-0.03573680057457442</v>
       </c>
       <c r="E26">
-        <v>-0.02014200563990082</v>
+        <v>0.02758775630922359</v>
       </c>
       <c r="F26">
-        <v>0.05423569719376026</v>
+        <v>0.007275517329145072</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1429166403210203</v>
+        <v>-0.141055375959525</v>
       </c>
       <c r="C28">
-        <v>-0.2877739840192416</v>
+        <v>-0.01444317290188337</v>
       </c>
       <c r="D28">
-        <v>0.00303925371823015</v>
+        <v>0.2675591471237136</v>
       </c>
       <c r="E28">
-        <v>-0.07075144327967633</v>
+        <v>-0.06776723097645089</v>
       </c>
       <c r="F28">
-        <v>0.02082301574796546</v>
+        <v>-0.03228415773928187</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.03579067171943319</v>
+        <v>-0.02695611981169683</v>
       </c>
       <c r="C29">
-        <v>0.03044389876528167</v>
+        <v>-0.00887711752354785</v>
       </c>
       <c r="D29">
-        <v>-0.02610796929442967</v>
+        <v>-0.03170343477020911</v>
       </c>
       <c r="E29">
-        <v>0.03297538847142279</v>
+        <v>0.01262566836474429</v>
       </c>
       <c r="F29">
-        <v>0.0209275182201881</v>
+        <v>0.01154150535187286</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09760406362915557</v>
+        <v>-0.06389119808347576</v>
       </c>
       <c r="C30">
-        <v>0.1039295036642987</v>
+        <v>-0.005907254840131574</v>
       </c>
       <c r="D30">
-        <v>-0.07183406638335832</v>
+        <v>-0.08328190766620477</v>
       </c>
       <c r="E30">
-        <v>-0.06068508704978642</v>
+        <v>0.025780975271955</v>
       </c>
       <c r="F30">
-        <v>0.0973029039251469</v>
+        <v>-0.1078153799923905</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03229311633912079</v>
+        <v>-0.04851624775846833</v>
       </c>
       <c r="C31">
-        <v>0.04869322351527713</v>
+        <v>-0.0151845282590457</v>
       </c>
       <c r="D31">
-        <v>-0.002791707641084732</v>
+        <v>-0.02798516213372181</v>
       </c>
       <c r="E31">
-        <v>0.02035721652462699</v>
+        <v>0.02733771246501185</v>
       </c>
       <c r="F31">
-        <v>-0.003631784675726372</v>
+        <v>0.003685892925587514</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05627285898960104</v>
+        <v>-0.04835456972017634</v>
       </c>
       <c r="C32">
-        <v>0.03275163735837867</v>
+        <v>-0.0005111781181623807</v>
       </c>
       <c r="D32">
-        <v>-0.04869072999280488</v>
+        <v>-0.03076574679719904</v>
       </c>
       <c r="E32">
-        <v>-0.05720650845593305</v>
+        <v>0.02991283164731454</v>
       </c>
       <c r="F32">
-        <v>-0.01470879969944937</v>
+        <v>-0.001864676005906721</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.0924538057864161</v>
+        <v>-0.09032817107702348</v>
       </c>
       <c r="C33">
-        <v>0.06941204041630025</v>
+        <v>-0.009565707934132053</v>
       </c>
       <c r="D33">
-        <v>-0.0385106586740132</v>
+        <v>-0.09388840265330732</v>
       </c>
       <c r="E33">
-        <v>0.009664721074833961</v>
+        <v>0.04722904496724644</v>
       </c>
       <c r="F33">
-        <v>-0.007429338872303373</v>
+        <v>-0.0416117889728066</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06960357979987766</v>
+        <v>-0.06866185989147303</v>
       </c>
       <c r="C34">
-        <v>0.0550609558524525</v>
+        <v>-0.01258050930714525</v>
       </c>
       <c r="D34">
-        <v>-0.04479836031104899</v>
+        <v>-0.09787556116147957</v>
       </c>
       <c r="E34">
-        <v>-0.003337686103535166</v>
+        <v>0.03550085253213698</v>
       </c>
       <c r="F34">
-        <v>-0.01437950849603522</v>
+        <v>-0.04549076344394052</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01086861798311624</v>
+        <v>-0.02419738985654271</v>
       </c>
       <c r="C35">
-        <v>0.01637497448671218</v>
+        <v>-0.002539624414929287</v>
       </c>
       <c r="D35">
-        <v>-0.004484799488724074</v>
+        <v>-0.01169994532546628</v>
       </c>
       <c r="E35">
-        <v>0.01403123622428925</v>
+        <v>0.01204194556891923</v>
       </c>
       <c r="F35">
-        <v>-0.001955944819818953</v>
+        <v>-0.01013899522533022</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02307102547919391</v>
+        <v>-0.024147153346378</v>
       </c>
       <c r="C36">
-        <v>0.02019167215280653</v>
+        <v>-0.007477737139715149</v>
       </c>
       <c r="D36">
-        <v>0.007503080917396667</v>
+        <v>-0.03841843593913635</v>
       </c>
       <c r="E36">
-        <v>-0.005501994003569907</v>
+        <v>0.01706919205735285</v>
       </c>
       <c r="F36">
-        <v>0.01176665247878313</v>
+        <v>-0.01122517020704152</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.01108873866467827</v>
+        <v>-0.001807881313961532</v>
       </c>
       <c r="C38">
-        <v>0.01919145784837428</v>
+        <v>-0.0003061658949861422</v>
       </c>
       <c r="D38">
-        <v>0.02728758675367987</v>
+        <v>-0.001664617612955164</v>
       </c>
       <c r="E38">
-        <v>0.03293999707781119</v>
+        <v>0.001983650991168608</v>
       </c>
       <c r="F38">
-        <v>0.08572826038344325</v>
+        <v>0.000659253634280449</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1097800442627051</v>
+        <v>-0.1094933227413662</v>
       </c>
       <c r="C39">
-        <v>0.1006648297635984</v>
+        <v>-0.0180238132857997</v>
       </c>
       <c r="D39">
-        <v>-0.1545066481128837</v>
+        <v>-0.1518315889695495</v>
       </c>
       <c r="E39">
-        <v>-0.01258440722716883</v>
+        <v>0.06033182417159782</v>
       </c>
       <c r="F39">
-        <v>0.06388559486877718</v>
+        <v>-0.03370917462950539</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02302857772065728</v>
+        <v>-0.03691560526530039</v>
       </c>
       <c r="C40">
-        <v>0.06898104899430127</v>
+        <v>-0.007351197934841278</v>
       </c>
       <c r="D40">
-        <v>0.01797299250722819</v>
+        <v>-0.03190109190847586</v>
       </c>
       <c r="E40">
-        <v>0.05967102604957501</v>
+        <v>0.004377296598861365</v>
       </c>
       <c r="F40">
-        <v>-0.02599238337281794</v>
+        <v>0.01533153971255295</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02874524170588991</v>
+        <v>-0.02605644262857573</v>
       </c>
       <c r="C41">
-        <v>0.01562601896751598</v>
+        <v>-0.006835673700030355</v>
       </c>
       <c r="D41">
-        <v>-0.020449560644545</v>
+        <v>-0.01058520562770808</v>
       </c>
       <c r="E41">
-        <v>0.01022907519262068</v>
+        <v>0.01179438507844052</v>
       </c>
       <c r="F41">
-        <v>0.02121549854100808</v>
+        <v>0.009357898808770956</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04010765342000254</v>
+        <v>-0.04128715109345964</v>
       </c>
       <c r="C43">
-        <v>0.01929961529819521</v>
+        <v>-0.006880216825712397</v>
       </c>
       <c r="D43">
-        <v>0.01217669105576487</v>
+        <v>-0.02009943729008857</v>
       </c>
       <c r="E43">
-        <v>0.0002389392763886154</v>
+        <v>0.02500288675190917</v>
       </c>
       <c r="F43">
-        <v>0.05952198875023266</v>
+        <v>0.01075009514607872</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1336327237485445</v>
+        <v>-0.07235893687931814</v>
       </c>
       <c r="C44">
-        <v>0.1602009625062071</v>
+        <v>-0.02220539662331934</v>
       </c>
       <c r="D44">
-        <v>0.07412416848239485</v>
+        <v>-0.1007603638213028</v>
       </c>
       <c r="E44">
-        <v>0.09523770064121274</v>
+        <v>0.0682894356059059</v>
       </c>
       <c r="F44">
-        <v>0.02150712104756327</v>
+        <v>-0.1697595692761404</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02857667057657845</v>
+        <v>-0.02220494179203111</v>
       </c>
       <c r="C46">
-        <v>0.002315310207433796</v>
+        <v>-0.004241819255681916</v>
       </c>
       <c r="D46">
-        <v>0.02897877897051962</v>
+        <v>-0.01106300007105698</v>
       </c>
       <c r="E46">
-        <v>0.03070106345080741</v>
+        <v>0.02273799543282061</v>
       </c>
       <c r="F46">
-        <v>0.0360781667131919</v>
+        <v>-0.001436846458946899</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03899540101729919</v>
+        <v>-0.05195818836079862</v>
       </c>
       <c r="C47">
-        <v>0.03318259848189135</v>
+        <v>-0.003395328438927812</v>
       </c>
       <c r="D47">
-        <v>-0.005719244149448338</v>
+        <v>-0.01225883728769186</v>
       </c>
       <c r="E47">
-        <v>0.01601935881913721</v>
+        <v>0.02164239586319806</v>
       </c>
       <c r="F47">
-        <v>0.005320470645987951</v>
+        <v>0.0437419938541261</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04279520893459975</v>
+        <v>-0.04748493252937826</v>
       </c>
       <c r="C48">
-        <v>0.02124237528999492</v>
+        <v>-0.003283685772177693</v>
       </c>
       <c r="D48">
-        <v>-0.01915068209863277</v>
+        <v>-0.04790281308982688</v>
       </c>
       <c r="E48">
-        <v>0.02071924950457496</v>
+        <v>-0.004170786956442518</v>
       </c>
       <c r="F48">
-        <v>-0.03195855698394529</v>
+        <v>-0.01205860931703849</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2210066555225669</v>
+        <v>-0.2024690898763534</v>
       </c>
       <c r="C49">
-        <v>-0.01753520833145774</v>
+        <v>-0.01701979271429241</v>
       </c>
       <c r="D49">
-        <v>-0.03388910624275011</v>
+        <v>0.01016205438729261</v>
       </c>
       <c r="E49">
-        <v>0.08539057228186725</v>
+        <v>0.03563160451356085</v>
       </c>
       <c r="F49">
-        <v>-0.03339138250073056</v>
+        <v>-0.03195123814505034</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04201782904497087</v>
+        <v>-0.04854682097853046</v>
       </c>
       <c r="C50">
-        <v>0.03528300476373193</v>
+        <v>-0.01132602883680815</v>
       </c>
       <c r="D50">
-        <v>-0.02131187698202085</v>
+        <v>-0.02641668010532849</v>
       </c>
       <c r="E50">
-        <v>0.01046707083743195</v>
+        <v>0.0291579721803533</v>
       </c>
       <c r="F50">
-        <v>0.02494390028486684</v>
+        <v>-0.009093421556181437</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0175572688957655</v>
+        <v>-0.002605486812768924</v>
       </c>
       <c r="C51">
-        <v>-0.01995262425329169</v>
+        <v>-0.000658866802578602</v>
       </c>
       <c r="D51">
-        <v>0.005128232913352665</v>
+        <v>0.002895468530788823</v>
       </c>
       <c r="E51">
-        <v>0.008317278914685726</v>
+        <v>-0.0002861999385591057</v>
       </c>
       <c r="F51">
-        <v>-0.01181394216240755</v>
+        <v>-0.005742217699268583</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.08499439190996848</v>
+        <v>-0.1449383574979291</v>
       </c>
       <c r="C52">
-        <v>0.07647683029499697</v>
+        <v>-0.01355570512964455</v>
       </c>
       <c r="D52">
-        <v>-0.01897925732944637</v>
+        <v>-0.05065048660273391</v>
       </c>
       <c r="E52">
-        <v>0.02136281021728458</v>
+        <v>0.02155520555557109</v>
       </c>
       <c r="F52">
-        <v>0.04135800191318503</v>
+        <v>-0.03528453761626622</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1576422295481445</v>
+        <v>-0.1741238773628112</v>
       </c>
       <c r="C53">
-        <v>0.04330278219185248</v>
+        <v>-0.01644331684323093</v>
       </c>
       <c r="D53">
-        <v>0.0161179259222534</v>
+        <v>-0.0116120896883924</v>
       </c>
       <c r="E53">
-        <v>0.04636923997043014</v>
+        <v>0.03545058422226306</v>
       </c>
       <c r="F53">
-        <v>0.07762714994476967</v>
+        <v>-0.06394147927617587</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05753092809291496</v>
+        <v>-0.02205565920466582</v>
       </c>
       <c r="C54">
-        <v>0.06482911569339403</v>
+        <v>-0.01247538038497779</v>
       </c>
       <c r="D54">
-        <v>-0.0006922318884474511</v>
+        <v>-0.03448699641832116</v>
       </c>
       <c r="E54">
-        <v>0.01542393843796758</v>
+        <v>0.01547269780657437</v>
       </c>
       <c r="F54">
-        <v>-0.02538960981247996</v>
+        <v>0.003239624677280536</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08607617251021278</v>
+        <v>-0.1147265635172119</v>
       </c>
       <c r="C55">
-        <v>0.0406312846198181</v>
+        <v>-0.01507898258016355</v>
       </c>
       <c r="D55">
-        <v>-0.03123211476167028</v>
+        <v>-0.0109947510229847</v>
       </c>
       <c r="E55">
-        <v>0.01696286860310602</v>
+        <v>0.02995617238385391</v>
       </c>
       <c r="F55">
-        <v>0.02395077782746412</v>
+        <v>-0.04666921342574025</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1529938203556193</v>
+        <v>-0.1780314182903925</v>
       </c>
       <c r="C56">
-        <v>0.0728398476441557</v>
+        <v>-0.01386061034700122</v>
       </c>
       <c r="D56">
-        <v>-0.02099384739917056</v>
+        <v>-0.007032208167249191</v>
       </c>
       <c r="E56">
-        <v>0.08064833331201746</v>
+        <v>0.0395792584082825</v>
       </c>
       <c r="F56">
-        <v>0.05154026188227044</v>
+        <v>-0.04054638222348129</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.0570240779168488</v>
+        <v>-0.04622480242222408</v>
       </c>
       <c r="C58">
-        <v>0.03932339679423623</v>
+        <v>-0.002447353438065192</v>
       </c>
       <c r="D58">
-        <v>0.04615551799909631</v>
+        <v>-0.06516545180450677</v>
       </c>
       <c r="E58">
-        <v>0.03257296270535301</v>
+        <v>0.02245552615308253</v>
       </c>
       <c r="F58">
-        <v>0.0303156329214043</v>
+        <v>0.04578721016889754</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2045544085501621</v>
+        <v>-0.1712528482161433</v>
       </c>
       <c r="C59">
-        <v>-0.2357890023313741</v>
+        <v>-0.01597000690538192</v>
       </c>
       <c r="D59">
-        <v>-0.03810577487073407</v>
+        <v>0.2260570382346072</v>
       </c>
       <c r="E59">
-        <v>-0.02776470242809577</v>
+        <v>-0.04935907774183627</v>
       </c>
       <c r="F59">
-        <v>-0.08721756780484662</v>
+        <v>0.03071159921957535</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2349347072852906</v>
+        <v>-0.2373862500403049</v>
       </c>
       <c r="C60">
-        <v>0.08480469187627891</v>
+        <v>0.00402145145324552</v>
       </c>
       <c r="D60">
-        <v>-0.07518353583498438</v>
+        <v>-0.0462763036620286</v>
       </c>
       <c r="E60">
-        <v>0.1170601892191007</v>
+        <v>0.005292520008191823</v>
       </c>
       <c r="F60">
-        <v>0.01429102195631032</v>
+        <v>0.02976834817798492</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1035688323076935</v>
+        <v>-0.08436866484132442</v>
       </c>
       <c r="C61">
-        <v>0.06255605216717788</v>
+        <v>-0.01411908004771544</v>
       </c>
       <c r="D61">
-        <v>-0.09538577994575322</v>
+        <v>-0.1120660129842089</v>
       </c>
       <c r="E61">
-        <v>0.01977546284176923</v>
+        <v>0.041444709064919</v>
       </c>
       <c r="F61">
-        <v>0.01856069290333252</v>
+        <v>-0.01934093706301063</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1503262313219837</v>
+        <v>-0.1707282431261562</v>
       </c>
       <c r="C62">
-        <v>0.05146345646023225</v>
+        <v>-0.01778964682367387</v>
       </c>
       <c r="D62">
-        <v>0.008888608344987399</v>
+        <v>-0.01051249941618628</v>
       </c>
       <c r="E62">
-        <v>0.05876272395059385</v>
+        <v>0.03678957334830033</v>
       </c>
       <c r="F62">
-        <v>0.05302279745525556</v>
+        <v>-0.02232185680391814</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04247143913944621</v>
+        <v>-0.04297490340045636</v>
       </c>
       <c r="C63">
-        <v>0.02109330983725938</v>
+        <v>-0.003587523671873284</v>
       </c>
       <c r="D63">
-        <v>-0.00995525908584723</v>
+        <v>-0.05028694679544385</v>
       </c>
       <c r="E63">
-        <v>-0.02747677880809803</v>
+        <v>0.02185590572026941</v>
       </c>
       <c r="F63">
-        <v>-0.001273502682328389</v>
+        <v>-0.00837494213878911</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09195814994186884</v>
+        <v>-0.1124812993501679</v>
       </c>
       <c r="C64">
-        <v>0.04907769576300608</v>
+        <v>-0.01209095694629079</v>
       </c>
       <c r="D64">
-        <v>-0.01598300109471145</v>
+        <v>-0.04167387106754603</v>
       </c>
       <c r="E64">
-        <v>0.0643072650018164</v>
+        <v>0.02017472636102485</v>
       </c>
       <c r="F64">
-        <v>0.04891489019644511</v>
+        <v>-0.02509471970875073</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1168684888720327</v>
+        <v>-0.1444552361103421</v>
       </c>
       <c r="C65">
-        <v>0.02150043836057271</v>
+        <v>-0.03119260603402949</v>
       </c>
       <c r="D65">
-        <v>-0.0112786500711039</v>
+        <v>0.04346413467186223</v>
       </c>
       <c r="E65">
-        <v>-0.05560799549161442</v>
+        <v>0.0003793544460942235</v>
       </c>
       <c r="F65">
-        <v>0.08975655252461995</v>
+        <v>-0.04297365062692934</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1285053341854068</v>
+        <v>-0.1311414553641256</v>
       </c>
       <c r="C66">
-        <v>0.1244002263119677</v>
+        <v>-0.01568309416116261</v>
       </c>
       <c r="D66">
-        <v>-0.1429207647535566</v>
+        <v>-0.1392810511307571</v>
       </c>
       <c r="E66">
-        <v>0.0158293138044091</v>
+        <v>0.06684895738829373</v>
       </c>
       <c r="F66">
-        <v>0.08999190197313617</v>
+        <v>-0.03861948082833255</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05604614482217904</v>
+        <v>-0.06270642347423774</v>
       </c>
       <c r="C67">
-        <v>0.03002708526931114</v>
+        <v>-0.003546187563007498</v>
       </c>
       <c r="D67">
-        <v>0.03501740776442321</v>
+        <v>-0.05385254705983279</v>
       </c>
       <c r="E67">
-        <v>0.01549882062251418</v>
+        <v>0.01954604853192484</v>
       </c>
       <c r="F67">
-        <v>0.07401285239883522</v>
+        <v>0.04005425123482986</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1201945427530353</v>
+        <v>-0.1150081039073342</v>
       </c>
       <c r="C68">
-        <v>-0.2503700754518343</v>
+        <v>-0.0253422678098053</v>
       </c>
       <c r="D68">
-        <v>-0.01150789419310794</v>
+        <v>0.2651291963103278</v>
       </c>
       <c r="E68">
-        <v>-0.07307446103832999</v>
+        <v>-0.08657475896292466</v>
       </c>
       <c r="F68">
-        <v>0.005161526631236014</v>
+        <v>-0.03802814296399529</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.0372037042539914</v>
+        <v>-0.03937569215085485</v>
       </c>
       <c r="C69">
-        <v>-0.01354150971653103</v>
+        <v>-0.001108235676049513</v>
       </c>
       <c r="D69">
-        <v>0.002937318425190084</v>
+        <v>-0.008882432977038716</v>
       </c>
       <c r="E69">
-        <v>0.006543663641608298</v>
+        <v>0.02378047411834357</v>
       </c>
       <c r="F69">
-        <v>0.05359196332279753</v>
+        <v>0.01258292852691045</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.03573880555489026</v>
+        <v>-0.06367615121932636</v>
       </c>
       <c r="C70">
-        <v>0.009033053014715456</v>
+        <v>0.02767237105158477</v>
       </c>
       <c r="D70">
-        <v>-0.03896087271099087</v>
+        <v>-0.02631559536705496</v>
       </c>
       <c r="E70">
-        <v>0.01526149328409819</v>
+        <v>-0.04886703934346627</v>
       </c>
       <c r="F70">
-        <v>0.07619657835816962</v>
+        <v>0.2833748112129653</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1398949339705997</v>
+        <v>-0.1337308889193259</v>
       </c>
       <c r="C71">
-        <v>-0.2681193746602114</v>
+        <v>-0.02961845212557295</v>
       </c>
       <c r="D71">
-        <v>-0.005018249282254785</v>
+        <v>0.2804628768266795</v>
       </c>
       <c r="E71">
-        <v>-0.03474685555218029</v>
+        <v>-0.094825910812701</v>
       </c>
       <c r="F71">
-        <v>0.05329140912585068</v>
+        <v>-0.0426196904155576</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1435613209179195</v>
+        <v>-0.1394761897016728</v>
       </c>
       <c r="C72">
-        <v>0.01791103454465256</v>
+        <v>-0.02445431467992706</v>
       </c>
       <c r="D72">
-        <v>-0.00141843081504321</v>
+        <v>-0.004733896655442801</v>
       </c>
       <c r="E72">
-        <v>0.01035854297718525</v>
+        <v>0.04452247585191609</v>
       </c>
       <c r="F72">
-        <v>0.05136264902660806</v>
+        <v>-0.02095608652380937</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2164910721417312</v>
+        <v>-0.2045759802255728</v>
       </c>
       <c r="C73">
-        <v>0.01761124443004516</v>
+        <v>-0.01134487409088369</v>
       </c>
       <c r="D73">
-        <v>-0.1166989621412294</v>
+        <v>-0.01536013895370731</v>
       </c>
       <c r="E73">
-        <v>0.1527462663005022</v>
+        <v>0.06070641102768407</v>
       </c>
       <c r="F73">
-        <v>0.05861093169150362</v>
+        <v>-0.03640888242775647</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.118481978613248</v>
+        <v>-0.09435383083531536</v>
       </c>
       <c r="C74">
-        <v>0.08442603367675558</v>
+        <v>-0.01222269776108185</v>
       </c>
       <c r="D74">
-        <v>-0.003626332506456189</v>
+        <v>-0.0220519295986755</v>
       </c>
       <c r="E74">
-        <v>0.02571351984591643</v>
+        <v>0.04852588467355198</v>
       </c>
       <c r="F74">
-        <v>0.09481213743014802</v>
+        <v>-0.04282942317403422</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1074198004105708</v>
+        <v>-0.1300684130231675</v>
       </c>
       <c r="C75">
-        <v>0.06175140676498028</v>
+        <v>-0.02643092478040725</v>
       </c>
       <c r="D75">
-        <v>-0.002243323837114527</v>
+        <v>-0.03347829748990538</v>
       </c>
       <c r="E75">
-        <v>0.02117463481998102</v>
+        <v>0.05988635887058529</v>
       </c>
       <c r="F75">
-        <v>-0.01252744189462701</v>
+        <v>-0.01459059796735385</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.03113309755916185</v>
+        <v>-0.004650485577611891</v>
       </c>
       <c r="C76">
-        <v>-0.004694407180286699</v>
+        <v>-0.001080002326271281</v>
       </c>
       <c r="D76">
-        <v>-0.00607806874702711</v>
+        <v>0.001695118278194497</v>
       </c>
       <c r="E76">
-        <v>0.0244596078746988</v>
+        <v>0.002220214557886154</v>
       </c>
       <c r="F76">
-        <v>0.0006373638849690301</v>
+        <v>-0.004093158576072085</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06672091703440862</v>
+        <v>-0.07895545052833373</v>
       </c>
       <c r="C77">
-        <v>0.04741427101719155</v>
+        <v>-0.01029740000918857</v>
       </c>
       <c r="D77">
-        <v>-0.0381462290624945</v>
+        <v>-0.1119652591365015</v>
       </c>
       <c r="E77">
-        <v>0.04781434377076739</v>
+        <v>0.03782093160517373</v>
       </c>
       <c r="F77">
-        <v>-0.01896145979405508</v>
+        <v>-0.03400458008484981</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1335247650368488</v>
+        <v>-0.1057112611787102</v>
       </c>
       <c r="C78">
-        <v>0.1173138967889088</v>
+        <v>-0.0418436057971795</v>
       </c>
       <c r="D78">
-        <v>0.1872998077184078</v>
+        <v>-0.1176063537567218</v>
       </c>
       <c r="E78">
-        <v>-0.1099222098454342</v>
+        <v>0.08460600269244713</v>
       </c>
       <c r="F78">
-        <v>-0.8222904808339447</v>
+        <v>-0.07393454738951973</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1294481087179337</v>
+        <v>-0.1646973283709145</v>
       </c>
       <c r="C79">
-        <v>0.05285260380816149</v>
+        <v>-0.02037550179607857</v>
       </c>
       <c r="D79">
-        <v>0.007415773757736641</v>
+        <v>-0.01857919971098587</v>
       </c>
       <c r="E79">
-        <v>0.05095925582792998</v>
+        <v>0.04842289257495152</v>
       </c>
       <c r="F79">
-        <v>0.0478090125293882</v>
+        <v>-0.006094055542201913</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.0769768223371339</v>
+        <v>-0.0804345158923163</v>
       </c>
       <c r="C80">
-        <v>0.07700876403015236</v>
+        <v>0.0004122143658029189</v>
       </c>
       <c r="D80">
-        <v>-0.08441892402165821</v>
+        <v>-0.05873145371949795</v>
       </c>
       <c r="E80">
-        <v>0.0136294898950277</v>
+        <v>0.03498872592686427</v>
       </c>
       <c r="F80">
-        <v>-0.003543626418929839</v>
+        <v>0.01524954217309019</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1365569842250527</v>
+        <v>-0.1234871773611602</v>
       </c>
       <c r="C81">
-        <v>0.08208289292584868</v>
+        <v>-0.03044293140329252</v>
       </c>
       <c r="D81">
-        <v>-0.002217157112522695</v>
+        <v>-0.01822669984271929</v>
       </c>
       <c r="E81">
-        <v>0.0431351094608582</v>
+        <v>0.05915684322346593</v>
       </c>
       <c r="F81">
-        <v>0.01079631451002257</v>
+        <v>-0.004563162443089758</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1488932589284073</v>
+        <v>-0.1642420533504045</v>
       </c>
       <c r="C82">
-        <v>0.06882903838325416</v>
+        <v>-0.02138630647350972</v>
       </c>
       <c r="D82">
-        <v>-0.01396103532780481</v>
+        <v>-0.01543757940981283</v>
       </c>
       <c r="E82">
-        <v>0.04416634522326771</v>
+        <v>0.03383765831600404</v>
       </c>
       <c r="F82">
-        <v>0.05378482793009737</v>
+        <v>-0.06106524541977008</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.08661574969766886</v>
+        <v>-0.06352590050348261</v>
       </c>
       <c r="C83">
-        <v>0.137767453510844</v>
+        <v>-0.003489714156573378</v>
       </c>
       <c r="D83">
-        <v>-0.01150828323360373</v>
+        <v>-0.04872153984728225</v>
       </c>
       <c r="E83">
-        <v>-0.0006402837562329202</v>
+        <v>0.004565151845032466</v>
       </c>
       <c r="F83">
-        <v>0.04758158808333628</v>
+        <v>0.04065664365614696</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05291238310556747</v>
+        <v>-0.05933510970177391</v>
       </c>
       <c r="C84">
-        <v>-0.09592437848403686</v>
+        <v>-0.01130280533772069</v>
       </c>
       <c r="D84">
-        <v>-0.05604404957707107</v>
+        <v>-0.06273283281366078</v>
       </c>
       <c r="E84">
-        <v>-0.01045826481942034</v>
+        <v>0.0003718404075405916</v>
       </c>
       <c r="F84">
-        <v>-0.2161483915027521</v>
+        <v>-0.01215666177966648</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1198648612297595</v>
+        <v>-0.1387067726213838</v>
       </c>
       <c r="C85">
-        <v>0.04183043847499569</v>
+        <v>-0.02586984864968699</v>
       </c>
       <c r="D85">
-        <v>-0.007540585996474614</v>
+        <v>-0.01462651724004194</v>
       </c>
       <c r="E85">
-        <v>0.06537920311627093</v>
+        <v>0.04059637837812162</v>
       </c>
       <c r="F85">
-        <v>0.04036787659234441</v>
+        <v>-0.04427230289185711</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.09647766327635714</v>
+        <v>-0.09874578186937229</v>
       </c>
       <c r="C86">
-        <v>0.01757122759978268</v>
+        <v>0.006739907381963939</v>
       </c>
       <c r="D86">
-        <v>0.007872601345464665</v>
+        <v>-0.01985988388548516</v>
       </c>
       <c r="E86">
-        <v>0.1688123154135541</v>
+        <v>0.1475421098565049</v>
       </c>
       <c r="F86">
-        <v>-0.2900830208516212</v>
+        <v>0.8617415677098285</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1165246900539945</v>
+        <v>-0.09831174195692302</v>
       </c>
       <c r="C87">
-        <v>0.1195302904631496</v>
+        <v>-0.02504196552120773</v>
       </c>
       <c r="D87">
-        <v>0.002542223594964967</v>
+        <v>-0.07646833443712758</v>
       </c>
       <c r="E87">
-        <v>0.08020998149802763</v>
+        <v>-0.05262488357774724</v>
       </c>
       <c r="F87">
-        <v>-0.02784023353225296</v>
+        <v>-0.07830900651661014</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05257546875100291</v>
+        <v>-0.061559678735419</v>
       </c>
       <c r="C88">
-        <v>0.05015432890357813</v>
+        <v>-0.003101519088230289</v>
       </c>
       <c r="D88">
-        <v>-0.04769246354252137</v>
+        <v>-0.05367020614242756</v>
       </c>
       <c r="E88">
-        <v>0.02633008464958795</v>
+        <v>0.02752176877332065</v>
       </c>
       <c r="F88">
-        <v>0.04564500318511087</v>
+        <v>-0.008919176099152585</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1972752755677507</v>
+        <v>-0.1346302144327663</v>
       </c>
       <c r="C89">
-        <v>-0.3620938116368387</v>
+        <v>-0.007747725142509312</v>
       </c>
       <c r="D89">
-        <v>0.05804618996357631</v>
+        <v>0.2594102461791324</v>
       </c>
       <c r="E89">
-        <v>-0.02801187520567332</v>
+        <v>-0.09166986684959565</v>
       </c>
       <c r="F89">
-        <v>-0.01648572377466751</v>
+        <v>-0.02652216155460635</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1534661157654861</v>
+        <v>-0.1449572252391266</v>
       </c>
       <c r="C90">
-        <v>-0.2562612943481908</v>
+        <v>-0.0250473618411926</v>
       </c>
       <c r="D90">
-        <v>-0.007636403640765086</v>
+        <v>0.2678294105641687</v>
       </c>
       <c r="E90">
-        <v>-0.02353714323571213</v>
+        <v>-0.1080059300313344</v>
       </c>
       <c r="F90">
-        <v>0.04455074387703618</v>
+        <v>-0.02679736423784779</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.07874639134596113</v>
+        <v>-0.1189097006945235</v>
       </c>
       <c r="C91">
-        <v>0.04024925100030837</v>
+        <v>-0.01677403369505211</v>
       </c>
       <c r="D91">
-        <v>-0.003700334303164329</v>
+        <v>0.007461146900610501</v>
       </c>
       <c r="E91">
-        <v>0.04536357664420251</v>
+        <v>0.05681892023221145</v>
       </c>
       <c r="F91">
-        <v>0.01981298589328045</v>
+        <v>0.02003219941085361</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1709353277080103</v>
+        <v>-0.1484573769444061</v>
       </c>
       <c r="C92">
-        <v>-0.2946754090595004</v>
+        <v>-0.01695991181581851</v>
       </c>
       <c r="D92">
-        <v>0.03074955740842445</v>
+        <v>0.298601620966892</v>
       </c>
       <c r="E92">
-        <v>-0.03786649513643153</v>
+        <v>-0.1032916264528915</v>
       </c>
       <c r="F92">
-        <v>-0.01791575786213775</v>
+        <v>-0.02327760859887206</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1545228240009618</v>
+        <v>-0.1494836051490015</v>
       </c>
       <c r="C93">
-        <v>-0.3171266388189515</v>
+        <v>-0.02168533380284795</v>
       </c>
       <c r="D93">
-        <v>-0.04053724842737425</v>
+        <v>0.2703108909228075</v>
       </c>
       <c r="E93">
-        <v>-0.03088696878918993</v>
+        <v>-0.07348276454568201</v>
       </c>
       <c r="F93">
-        <v>0.02824905293397117</v>
+        <v>-0.01859412625047943</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.134432386438925</v>
+        <v>-0.1334912271287078</v>
       </c>
       <c r="C94">
-        <v>0.0610925372111791</v>
+        <v>-0.02390022040015751</v>
       </c>
       <c r="D94">
-        <v>0.01053967364228424</v>
+        <v>-0.04571687688312286</v>
       </c>
       <c r="E94">
-        <v>0.03036609963977177</v>
+        <v>0.06098536104282313</v>
       </c>
       <c r="F94">
-        <v>0.01650798188755099</v>
+        <v>-0.03180161149900503</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1196152843380725</v>
+        <v>-0.1258390079100582</v>
       </c>
       <c r="C95">
-        <v>0.05304957902913323</v>
+        <v>-0.0055758451303938</v>
       </c>
       <c r="D95">
-        <v>0.01282491483394099</v>
+        <v>-0.0910040945843775</v>
       </c>
       <c r="E95">
-        <v>0.03651704155537068</v>
+        <v>0.04522901392634689</v>
       </c>
       <c r="F95">
-        <v>-0.09356724362349085</v>
+        <v>0.01159758028663595</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.007639071702602083</v>
+        <v>-0.09854751033814503</v>
       </c>
       <c r="C96">
-        <v>0.006833903093668001</v>
+        <v>0.9889436590582711</v>
       </c>
       <c r="D96">
-        <v>-0.0003066757048637738</v>
+        <v>0.02702052189850764</v>
       </c>
       <c r="E96">
-        <v>0.0002404629386401349</v>
+        <v>0.05819300088650555</v>
       </c>
       <c r="F96">
-        <v>-0.02286172505962005</v>
+        <v>-0.04796967339975226</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1812798644256625</v>
+        <v>-0.1879691615922766</v>
       </c>
       <c r="C97">
-        <v>0.1900134731260532</v>
+        <v>0.01121742980361113</v>
       </c>
       <c r="D97">
-        <v>0.1028217075205952</v>
+        <v>0.006563713897714629</v>
       </c>
       <c r="E97">
-        <v>-0.8830638889418231</v>
+        <v>0.02041858867356586</v>
       </c>
       <c r="F97">
-        <v>0.101111352633459</v>
+        <v>0.1821489611986804</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2321778053650264</v>
+        <v>-0.2045965206207114</v>
       </c>
       <c r="C98">
-        <v>0.03495629157126109</v>
+        <v>-0.006943886572275662</v>
       </c>
       <c r="D98">
-        <v>0.09574215436385791</v>
+        <v>-0.0120715654809413</v>
       </c>
       <c r="E98">
-        <v>0.01157108735328981</v>
+        <v>-0.09580029328710429</v>
       </c>
       <c r="F98">
-        <v>-0.042420104585678</v>
+        <v>0.1197866346456837</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05537216242792171</v>
+        <v>-0.05673322808710468</v>
       </c>
       <c r="C99">
-        <v>0.009289033935541624</v>
+        <v>0.003745703753333008</v>
       </c>
       <c r="D99">
-        <v>0.00468575604989219</v>
+        <v>-0.03560688273078413</v>
       </c>
       <c r="E99">
-        <v>0.01320282088600842</v>
+        <v>0.02654762713069669</v>
       </c>
       <c r="F99">
-        <v>0.01348494495549563</v>
+        <v>-0.004897131770611639</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.005835164976946367</v>
+        <v>-0.1240101565778143</v>
       </c>
       <c r="C100">
-        <v>0.02443181516876259</v>
+        <v>0.04940863719244303</v>
       </c>
       <c r="D100">
-        <v>-0.006517940853525923</v>
+        <v>-0.3432119675439146</v>
       </c>
       <c r="E100">
-        <v>-0.119531899268818</v>
+        <v>-0.8969929425657448</v>
       </c>
       <c r="F100">
-        <v>0.03782797590233623</v>
+        <v>0.07119197830001046</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.03539863458363054</v>
+        <v>-0.02689155772927348</v>
       </c>
       <c r="C101">
-        <v>0.03094584156948388</v>
+        <v>-0.008880257670042127</v>
       </c>
       <c r="D101">
-        <v>-0.02710577615258594</v>
+        <v>-0.03143012940355544</v>
       </c>
       <c r="E101">
-        <v>0.03304223701697753</v>
+        <v>0.01214750098958061</v>
       </c>
       <c r="F101">
-        <v>0.01893910608900074</v>
+        <v>0.01344986777445159</v>
       </c>
     </row>
     <row r="102" spans="1:6">
